--- a/data/trans_dic/P15E_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15E_R-Estudios-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.6776309287708105</v>
+        <v>0.6776309287708107</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.7848739351362184</v>
+        <v>0.7848739351362182</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.7577887449780376</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5090305669525814</v>
+        <v>0.5095913408599596</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7011217695929093</v>
+        <v>0.7013078766625316</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6890595469372288</v>
+        <v>0.6812417395885212</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.813410267536343</v>
+        <v>0.8376982260221725</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8481430717644936</v>
+        <v>0.8522721506405138</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8220315906100514</v>
+        <v>0.8197597304509665</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.5794652005861091</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.6422621639314227</v>
+        <v>0.6422621639314225</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.6129123927683022</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3336226366604515</v>
+        <v>0.3413103166200968</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4632499144173962</v>
+        <v>0.4229349729656603</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4646864207389615</v>
+        <v>0.4616841066724696</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7997080417521878</v>
+        <v>0.8108504142725079</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8123316621624116</v>
+        <v>0.797795535153739</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7381230730035236</v>
+        <v>0.7560099038291754</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1442240696151806</v>
+        <v>0.1420982697860771</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1642662216759804</v>
+        <v>0.2002281154945656</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2785872006120776</v>
+        <v>0.2631981261655256</v>
       </c>
     </row>
     <row r="12">
@@ -711,10 +711,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7137383443391946</v>
+        <v>0.7346316231662733</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7265481510456036</v>
+        <v>0.7393106684906386</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.7347210445728973</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7062284964069768</v>
+        <v>0.706228496406977</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4828359200218616</v>
+        <v>0.504242052078869</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6589505922656557</v>
+        <v>0.6608497567360229</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6434565480938971</v>
+        <v>0.6429635256950378</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7518346003207015</v>
+        <v>0.7634351258886519</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7950229964141448</v>
+        <v>0.7984646466867511</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7639214385756894</v>
+        <v>0.7653103650234832</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>11542</v>
+        <v>11554</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>47047</v>
+        <v>47060</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>61862</v>
+        <v>61160</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>18443</v>
+        <v>18994</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>56913</v>
+        <v>57190</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>73800</v>
+        <v>73596</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4069</v>
+        <v>4162</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6438</v>
+        <v>5878</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>12125</v>
+        <v>12047</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9752</v>
+        <v>9888</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11290</v>
+        <v>11088</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>19260</v>
+        <v>19727</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1205</v>
+        <v>1469</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2945</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="15">
@@ -1074,10 +1074,10 @@
         <v>3235</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5235</v>
+        <v>5389</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7680</v>
+        <v>7815</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18398</v>
+        <v>19214</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>58209</v>
+        <v>58377</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>81359</v>
+        <v>81296</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>28648</v>
+        <v>29090</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>70229</v>
+        <v>70533</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>96590</v>
+        <v>96766</v>
       </c>
     </row>
     <row r="20">
